--- a/excel/mag_degree_centrality.xlsx
+++ b/excel/mag_degree_centrality.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B239"/>
+  <dimension ref="A1:B229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -385,7 +385,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4852320675105485</v>
+        <v>0.5066079295154186</v>
       </c>
     </row>
     <row r="3">
@@ -395,7 +395,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3839662447257384</v>
+        <v>0.4008810572687225</v>
       </c>
     </row>
     <row r="4">
@@ -405,7 +405,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2995780590717299</v>
+        <v>0.3127753303964758</v>
       </c>
     </row>
     <row r="5">
@@ -415,7 +415,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2742616033755274</v>
+        <v>0.2863436123348018</v>
       </c>
     </row>
     <row r="6">
@@ -425,7 +425,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2742616033755274</v>
+        <v>0.2863436123348018</v>
       </c>
     </row>
     <row r="7">
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.240506329113924</v>
+        <v>0.2511013215859031</v>
       </c>
     </row>
     <row r="8">
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2362869198312236</v>
+        <v>0.2466960352422908</v>
       </c>
     </row>
     <row r="9">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2362869198312236</v>
+        <v>0.2466960352422908</v>
       </c>
     </row>
     <row r="10">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2362869198312236</v>
+        <v>0.2466960352422908</v>
       </c>
     </row>
     <row r="11">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2362869198312236</v>
+        <v>0.2466960352422908</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2362869198312236</v>
+        <v>0.2466960352422908</v>
       </c>
     </row>
     <row r="13">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2320675105485232</v>
+        <v>0.2422907488986784</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2236286919831224</v>
+        <v>0.2334801762114538</v>
       </c>
     </row>
     <row r="15">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2109704641350211</v>
+        <v>0.2202643171806168</v>
       </c>
     </row>
     <row r="16">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2109704641350211</v>
+        <v>0.2202643171806168</v>
       </c>
     </row>
     <row r="17">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2109704641350211</v>
+        <v>0.2202643171806168</v>
       </c>
     </row>
     <row r="18">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2109704641350211</v>
+        <v>0.2202643171806168</v>
       </c>
     </row>
     <row r="19">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2109704641350211</v>
+        <v>0.2202643171806168</v>
       </c>
     </row>
     <row r="20">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2109704641350211</v>
+        <v>0.2202643171806168</v>
       </c>
     </row>
     <row r="21">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2109704641350211</v>
+        <v>0.2202643171806168</v>
       </c>
     </row>
     <row r="22">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2109704641350211</v>
+        <v>0.2202643171806168</v>
       </c>
     </row>
     <row r="23">
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2109704641350211</v>
+        <v>0.2202643171806168</v>
       </c>
     </row>
     <row r="24">
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1983122362869198</v>
+        <v>0.2070484581497798</v>
       </c>
     </row>
     <row r="25">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1940928270042194</v>
+        <v>0.2026431718061674</v>
       </c>
     </row>
     <row r="26">
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.189873417721519</v>
+        <v>0.1982378854625551</v>
       </c>
     </row>
     <row r="27">
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1729957805907173</v>
+        <v>0.1806167400881057</v>
       </c>
     </row>
     <row r="28">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1729957805907173</v>
+        <v>0.1806167400881057</v>
       </c>
     </row>
     <row r="29">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1729957805907173</v>
+        <v>0.1806167400881057</v>
       </c>
     </row>
     <row r="30">
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1729957805907173</v>
+        <v>0.1806167400881057</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1729957805907173</v>
+        <v>0.1806167400881057</v>
       </c>
     </row>
     <row r="32">
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1729957805907173</v>
+        <v>0.1806167400881057</v>
       </c>
     </row>
     <row r="33">
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1687763713080169</v>
+        <v>0.1762114537444934</v>
       </c>
     </row>
     <row r="34">
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1687763713080169</v>
+        <v>0.1762114537444934</v>
       </c>
     </row>
     <row r="35">
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1645569620253164</v>
+        <v>0.1718061674008811</v>
       </c>
     </row>
     <row r="36">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1645569620253164</v>
+        <v>0.1718061674008811</v>
       </c>
     </row>
     <row r="37">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1645569620253164</v>
+        <v>0.1718061674008811</v>
       </c>
     </row>
     <row r="38">
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1645569620253164</v>
+        <v>0.1718061674008811</v>
       </c>
     </row>
     <row r="39">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1645569620253164</v>
+        <v>0.1718061674008811</v>
       </c>
     </row>
     <row r="40">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1645569620253164</v>
+        <v>0.1718061674008811</v>
       </c>
     </row>
     <row r="41">
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1645569620253164</v>
+        <v>0.1718061674008811</v>
       </c>
     </row>
     <row r="42">
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1645569620253164</v>
+        <v>0.1718061674008811</v>
       </c>
     </row>
     <row r="43">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1645569620253164</v>
+        <v>0.1718061674008811</v>
       </c>
     </row>
     <row r="44">
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.1645569620253164</v>
+        <v>0.1718061674008811</v>
       </c>
     </row>
     <row r="45">
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.1645569620253164</v>
+        <v>0.1718061674008811</v>
       </c>
     </row>
     <row r="46">
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.1645569620253164</v>
+        <v>0.1718061674008811</v>
       </c>
     </row>
     <row r="47">
@@ -835,7 +835,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1645569620253164</v>
+        <v>0.1718061674008811</v>
       </c>
     </row>
     <row r="48">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.1645569620253164</v>
+        <v>0.1718061674008811</v>
       </c>
     </row>
     <row r="49">
@@ -855,7 +855,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1645569620253164</v>
+        <v>0.1718061674008811</v>
       </c>
     </row>
     <row r="50">
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.160337552742616</v>
+        <v>0.1674008810572687</v>
       </c>
     </row>
     <row r="51">
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1518987341772152</v>
+        <v>0.1585903083700441</v>
       </c>
     </row>
     <row r="52">
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1518987341772152</v>
+        <v>0.1585903083700441</v>
       </c>
     </row>
     <row r="53">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.1476793248945148</v>
+        <v>0.1541850220264317</v>
       </c>
     </row>
     <row r="54">
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1392405063291139</v>
+        <v>0.1453744493392071</v>
       </c>
     </row>
     <row r="55">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1308016877637131</v>
+        <v>0.1365638766519824</v>
       </c>
     </row>
     <row r="56">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1265822784810126</v>
+        <v>0.13215859030837</v>
       </c>
     </row>
     <row r="57">
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1223628691983122</v>
+        <v>0.1277533039647577</v>
       </c>
     </row>
     <row r="58">
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1223628691983122</v>
+        <v>0.1277533039647577</v>
       </c>
     </row>
     <row r="59">
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1181434599156118</v>
+        <v>0.1233480176211454</v>
       </c>
     </row>
     <row r="60">
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1181434599156118</v>
+        <v>0.1233480176211454</v>
       </c>
     </row>
     <row r="61">
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.109704641350211</v>
+        <v>0.1145374449339207</v>
       </c>
     </row>
     <row r="62">
@@ -985,7 +985,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1054852320675105</v>
+        <v>0.1101321585903084</v>
       </c>
     </row>
     <row r="63">
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1054852320675105</v>
+        <v>0.1101321585903084</v>
       </c>
     </row>
     <row r="64">
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1012658227848101</v>
+        <v>0.1057268722466961</v>
       </c>
     </row>
     <row r="65">
@@ -1015,7 +1015,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1012658227848101</v>
+        <v>0.1057268722466961</v>
       </c>
     </row>
     <row r="66">
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1012658227848101</v>
+        <v>0.1057268722466961</v>
       </c>
     </row>
     <row r="67">
@@ -1035,7 +1035,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1012658227848101</v>
+        <v>0.1057268722466961</v>
       </c>
     </row>
     <row r="68">
@@ -1045,7 +1045,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1012658227848101</v>
+        <v>0.1057268722466961</v>
       </c>
     </row>
     <row r="69">
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1012658227848101</v>
+        <v>0.1057268722466961</v>
       </c>
     </row>
     <row r="70">
@@ -1065,7 +1065,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1012658227848101</v>
+        <v>0.1057268722466961</v>
       </c>
     </row>
     <row r="71">
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1012658227848101</v>
+        <v>0.1057268722466961</v>
       </c>
     </row>
     <row r="72">
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1012658227848101</v>
+        <v>0.1057268722466961</v>
       </c>
     </row>
     <row r="73">
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1012658227848101</v>
+        <v>0.1057268722466961</v>
       </c>
     </row>
     <row r="74">
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.0970464135021097</v>
+        <v>0.1013215859030837</v>
       </c>
     </row>
     <row r="75">
@@ -1115,7 +1115,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.0970464135021097</v>
+        <v>0.1013215859030837</v>
       </c>
     </row>
     <row r="76">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.09282700421940927</v>
+        <v>0.09691629955947137</v>
       </c>
     </row>
     <row r="77">
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.09282700421940927</v>
+        <v>0.09691629955947137</v>
       </c>
     </row>
     <row r="78">
@@ -1145,7 +1145,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.08860759493670885</v>
+        <v>0.09251101321585904</v>
       </c>
     </row>
     <row r="79">
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.08860759493670885</v>
+        <v>0.09251101321585904</v>
       </c>
     </row>
     <row r="80">
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.08438818565400844</v>
+        <v>0.0881057268722467</v>
       </c>
     </row>
     <row r="81">
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.08438818565400844</v>
+        <v>0.0881057268722467</v>
       </c>
     </row>
     <row r="82">
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.08438818565400844</v>
+        <v>0.0881057268722467</v>
       </c>
     </row>
     <row r="83">
@@ -1195,7 +1195,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.08438818565400844</v>
+        <v>0.0881057268722467</v>
       </c>
     </row>
     <row r="84">
@@ -1205,7 +1205,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.08438818565400844</v>
+        <v>0.0881057268722467</v>
       </c>
     </row>
     <row r="85">
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.08438818565400844</v>
+        <v>0.0881057268722467</v>
       </c>
     </row>
     <row r="86">
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.08438818565400844</v>
+        <v>0.0881057268722467</v>
       </c>
     </row>
     <row r="87">
@@ -1235,7 +1235,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.08438818565400844</v>
+        <v>0.0881057268722467</v>
       </c>
     </row>
     <row r="88">
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.08438818565400844</v>
+        <v>0.0881057268722467</v>
       </c>
     </row>
     <row r="89">
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.08438818565400844</v>
+        <v>0.0881057268722467</v>
       </c>
     </row>
     <row r="90">
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.08438818565400844</v>
+        <v>0.0881057268722467</v>
       </c>
     </row>
     <row r="91">
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.08438818565400844</v>
+        <v>0.0881057268722467</v>
       </c>
     </row>
     <row r="92">
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.08438818565400844</v>
+        <v>0.0881057268722467</v>
       </c>
     </row>
     <row r="93">
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.08438818565400844</v>
+        <v>0.0881057268722467</v>
       </c>
     </row>
     <row r="94">
@@ -1305,7 +1305,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.08438818565400844</v>
+        <v>0.0881057268722467</v>
       </c>
     </row>
     <row r="95">
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.08438818565400844</v>
+        <v>0.0881057268722467</v>
       </c>
     </row>
     <row r="96">
@@ -1325,7 +1325,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.08438818565400844</v>
+        <v>0.0881057268722467</v>
       </c>
     </row>
     <row r="97">
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.08016877637130801</v>
+        <v>0.08370044052863437</v>
       </c>
     </row>
     <row r="98">
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.07594936708860758</v>
+        <v>0.07929515418502203</v>
       </c>
     </row>
     <row r="99">
@@ -1355,7 +1355,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.07594936708860758</v>
+        <v>0.07929515418502203</v>
       </c>
     </row>
     <row r="100">
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.07594936708860758</v>
+        <v>0.07929515418502203</v>
       </c>
     </row>
     <row r="101">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.07594936708860758</v>
+        <v>0.07929515418502203</v>
       </c>
     </row>
     <row r="102">
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.07594936708860758</v>
+        <v>0.07929515418502203</v>
       </c>
     </row>
     <row r="103">
@@ -1395,7 +1395,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.07594936708860758</v>
+        <v>0.07929515418502203</v>
       </c>
     </row>
     <row r="104">
@@ -1405,7 +1405,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.07594936708860758</v>
+        <v>0.07929515418502203</v>
       </c>
     </row>
     <row r="105">
@@ -1415,7 +1415,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.07172995780590717</v>
+        <v>0.0748898678414097</v>
       </c>
     </row>
     <row r="106">
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.06751054852320675</v>
+        <v>0.07048458149779736</v>
       </c>
     </row>
     <row r="107">
@@ -1435,7 +1435,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.06751054852320675</v>
+        <v>0.07048458149779736</v>
       </c>
     </row>
     <row r="108">
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.06751054852320675</v>
+        <v>0.07048458149779736</v>
       </c>
     </row>
     <row r="109">
@@ -1455,7 +1455,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.06751054852320675</v>
+        <v>0.07048458149779736</v>
       </c>
     </row>
     <row r="110">
@@ -1465,7 +1465,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.06329113924050632</v>
+        <v>0.06607929515418502</v>
       </c>
     </row>
     <row r="111">
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.06329113924050632</v>
+        <v>0.06607929515418502</v>
       </c>
     </row>
     <row r="112">
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.06329113924050632</v>
+        <v>0.06607929515418502</v>
       </c>
     </row>
     <row r="113">
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.06329113924050632</v>
+        <v>0.06607929515418502</v>
       </c>
     </row>
     <row r="114">
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.06329113924050632</v>
+        <v>0.06607929515418502</v>
       </c>
     </row>
     <row r="115">
@@ -1515,7 +1515,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.06329113924050632</v>
+        <v>0.06607929515418502</v>
       </c>
     </row>
     <row r="116">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.06329113924050632</v>
+        <v>0.06607929515418502</v>
       </c>
     </row>
     <row r="117">
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.06329113924050632</v>
+        <v>0.06607929515418502</v>
       </c>
     </row>
     <row r="118">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.06329113924050632</v>
+        <v>0.06607929515418502</v>
       </c>
     </row>
     <row r="119">
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.0590717299578059</v>
+        <v>0.06167400881057269</v>
       </c>
     </row>
     <row r="120">
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.0590717299578059</v>
+        <v>0.06167400881057269</v>
       </c>
     </row>
     <row r="121">
@@ -1575,7 +1575,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.0590717299578059</v>
+        <v>0.06167400881057269</v>
       </c>
     </row>
     <row r="122">
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.0590717299578059</v>
+        <v>0.06167400881057269</v>
       </c>
     </row>
     <row r="123">
@@ -1595,7 +1595,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.0590717299578059</v>
+        <v>0.06167400881057269</v>
       </c>
     </row>
     <row r="124">
@@ -1605,7 +1605,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.0590717299578059</v>
+        <v>0.06167400881057269</v>
       </c>
     </row>
     <row r="125">
@@ -1615,7 +1615,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.05485232067510548</v>
+        <v>0.05726872246696036</v>
       </c>
     </row>
     <row r="126">
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.05485232067510548</v>
+        <v>0.05726872246696036</v>
       </c>
     </row>
     <row r="127">
@@ -1635,7 +1635,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.05063291139240506</v>
+        <v>0.05286343612334803</v>
       </c>
     </row>
     <row r="128">
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.05063291139240506</v>
+        <v>0.05286343612334803</v>
       </c>
     </row>
     <row r="129">
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.05063291139240506</v>
+        <v>0.05286343612334803</v>
       </c>
     </row>
     <row r="130">
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.05063291139240506</v>
+        <v>0.05286343612334803</v>
       </c>
     </row>
     <row r="131">
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.05063291139240506</v>
+        <v>0.05286343612334803</v>
       </c>
     </row>
     <row r="132">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.05063291139240506</v>
+        <v>0.05286343612334803</v>
       </c>
     </row>
     <row r="133">
@@ -1695,7 +1695,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.05063291139240506</v>
+        <v>0.05286343612334803</v>
       </c>
     </row>
     <row r="134">
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.05063291139240506</v>
+        <v>0.05286343612334803</v>
       </c>
     </row>
     <row r="135">
@@ -1715,7 +1715,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.05063291139240506</v>
+        <v>0.05286343612334803</v>
       </c>
     </row>
     <row r="136">
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.05063291139240506</v>
+        <v>0.05286343612334803</v>
       </c>
     </row>
     <row r="137">
@@ -1735,7 +1735,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.05063291139240506</v>
+        <v>0.05286343612334803</v>
       </c>
     </row>
     <row r="138">
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.05063291139240506</v>
+        <v>0.05286343612334803</v>
       </c>
     </row>
     <row r="139">
@@ -1755,7 +1755,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.05063291139240506</v>
+        <v>0.05286343612334803</v>
       </c>
     </row>
     <row r="140">
@@ -1765,7 +1765,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.05063291139240506</v>
+        <v>0.05286343612334803</v>
       </c>
     </row>
     <row r="141">
@@ -1775,7 +1775,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.05063291139240506</v>
+        <v>0.05286343612334803</v>
       </c>
     </row>
     <row r="142">
@@ -1785,7 +1785,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.05063291139240506</v>
+        <v>0.05286343612334803</v>
       </c>
     </row>
     <row r="143">
@@ -1795,7 +1795,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.05063291139240506</v>
+        <v>0.05286343612334803</v>
       </c>
     </row>
     <row r="144">
@@ -1805,7 +1805,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.05063291139240506</v>
+        <v>0.05286343612334803</v>
       </c>
     </row>
     <row r="145">
@@ -1815,7 +1815,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.05063291139240506</v>
+        <v>0.05286343612334803</v>
       </c>
     </row>
     <row r="146">
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.05063291139240506</v>
+        <v>0.05286343612334803</v>
       </c>
     </row>
     <row r="147">
@@ -1835,7 +1835,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.04641350210970464</v>
+        <v>0.04845814977973568</v>
       </c>
     </row>
     <row r="148">
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.04641350210970464</v>
+        <v>0.04845814977973568</v>
       </c>
     </row>
     <row r="149">
@@ -1855,7 +1855,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.04641350210970464</v>
+        <v>0.04845814977973568</v>
       </c>
     </row>
     <row r="150">
@@ -1865,7 +1865,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.04641350210970464</v>
+        <v>0.04845814977973568</v>
       </c>
     </row>
     <row r="151">
@@ -1875,7 +1875,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.04641350210970464</v>
+        <v>0.04845814977973568</v>
       </c>
     </row>
     <row r="152">
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.04641350210970464</v>
+        <v>0.04845814977973568</v>
       </c>
     </row>
     <row r="153">
@@ -1895,7 +1895,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.04219409282700422</v>
+        <v>0.04405286343612335</v>
       </c>
     </row>
     <row r="154">
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.03797468354430379</v>
+        <v>0.03964757709251102</v>
       </c>
     </row>
     <row r="155">
@@ -1915,7 +1915,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.03797468354430379</v>
+        <v>0.03964757709251102</v>
       </c>
     </row>
     <row r="156">
@@ -1925,7 +1925,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.03797468354430379</v>
+        <v>0.03964757709251102</v>
       </c>
     </row>
     <row r="157">
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.03375527426160337</v>
+        <v>0.03524229074889868</v>
       </c>
     </row>
     <row r="158">
@@ -1945,7 +1945,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.03375527426160337</v>
+        <v>0.03524229074889868</v>
       </c>
     </row>
     <row r="159">
@@ -1955,7 +1955,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.03375527426160337</v>
+        <v>0.03524229074889868</v>
       </c>
     </row>
     <row r="160">
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.03375527426160337</v>
+        <v>0.03524229074889868</v>
       </c>
     </row>
     <row r="161">
@@ -1975,7 +1975,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.03375527426160337</v>
+        <v>0.03524229074889868</v>
       </c>
     </row>
     <row r="162">
@@ -1985,7 +1985,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.03375527426160337</v>
+        <v>0.03524229074889868</v>
       </c>
     </row>
     <row r="163">
@@ -1995,7 +1995,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.03375527426160337</v>
+        <v>0.03524229074889868</v>
       </c>
     </row>
     <row r="164">
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.02953586497890295</v>
+        <v>0.03083700440528635</v>
       </c>
     </row>
     <row r="165">
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.02953586497890295</v>
+        <v>0.03083700440528635</v>
       </c>
     </row>
     <row r="166">
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.02953586497890295</v>
+        <v>0.03083700440528635</v>
       </c>
     </row>
     <row r="167">
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.02953586497890295</v>
+        <v>0.03083700440528635</v>
       </c>
     </row>
     <row r="168">
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.02953586497890295</v>
+        <v>0.03083700440528635</v>
       </c>
     </row>
     <row r="169">
@@ -2055,7 +2055,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.02953586497890295</v>
+        <v>0.03083700440528635</v>
       </c>
     </row>
     <row r="170">
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.02953586497890295</v>
+        <v>0.03083700440528635</v>
       </c>
     </row>
     <row r="171">
@@ -2075,7 +2075,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.02953586497890295</v>
+        <v>0.03083700440528635</v>
       </c>
     </row>
     <row r="172">
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.02953586497890295</v>
+        <v>0.03083700440528635</v>
       </c>
     </row>
     <row r="173">
@@ -2095,7 +2095,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.02953586497890295</v>
+        <v>0.03083700440528635</v>
       </c>
     </row>
     <row r="174">
@@ -2105,7 +2105,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.02953586497890295</v>
+        <v>0.03083700440528635</v>
       </c>
     </row>
     <row r="175">
@@ -2115,7 +2115,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.02953586497890295</v>
+        <v>0.03083700440528635</v>
       </c>
     </row>
     <row r="176">
@@ -2125,7 +2125,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.02953586497890295</v>
+        <v>0.03083700440528635</v>
       </c>
     </row>
     <row r="177">
@@ -2135,7 +2135,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.02953586497890295</v>
+        <v>0.03083700440528635</v>
       </c>
     </row>
     <row r="178">
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.02953586497890295</v>
+        <v>0.03083700440528635</v>
       </c>
     </row>
     <row r="179">
@@ -2155,7 +2155,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.02953586497890295</v>
+        <v>0.03083700440528635</v>
       </c>
     </row>
     <row r="180">
@@ -2165,7 +2165,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.02953586497890295</v>
+        <v>0.03083700440528635</v>
       </c>
     </row>
     <row r="181">
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.02531645569620253</v>
+        <v>0.02643171806167401</v>
       </c>
     </row>
     <row r="182">
@@ -2185,7 +2185,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.02531645569620253</v>
+        <v>0.02643171806167401</v>
       </c>
     </row>
     <row r="183">
@@ -2195,7 +2195,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.02531645569620253</v>
+        <v>0.02643171806167401</v>
       </c>
     </row>
     <row r="184">
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.02531645569620253</v>
+        <v>0.02643171806167401</v>
       </c>
     </row>
     <row r="185">
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.02531645569620253</v>
+        <v>0.02643171806167401</v>
       </c>
     </row>
     <row r="186">
@@ -2225,7 +2225,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.02531645569620253</v>
+        <v>0.02643171806167401</v>
       </c>
     </row>
     <row r="187">
@@ -2235,7 +2235,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.02531645569620253</v>
+        <v>0.02643171806167401</v>
       </c>
     </row>
     <row r="188">
@@ -2245,7 +2245,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.02531645569620253</v>
+        <v>0.02643171806167401</v>
       </c>
     </row>
     <row r="189">
@@ -2255,7 +2255,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.02531645569620253</v>
+        <v>0.02643171806167401</v>
       </c>
     </row>
     <row r="190">
@@ -2265,7 +2265,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.02531645569620253</v>
+        <v>0.02643171806167401</v>
       </c>
     </row>
     <row r="191">
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.02109704641350211</v>
+        <v>0.02202643171806168</v>
       </c>
     </row>
     <row r="192">
@@ -2285,7 +2285,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.01687763713080169</v>
+        <v>0.01762114537444934</v>
       </c>
     </row>
     <row r="193">
@@ -2295,7 +2295,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.01687763713080169</v>
+        <v>0.01762114537444934</v>
       </c>
     </row>
     <row r="194">
@@ -2305,7 +2305,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.01687763713080169</v>
+        <v>0.01762114537444934</v>
       </c>
     </row>
     <row r="195">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.01687763713080169</v>
+        <v>0.01762114537444934</v>
       </c>
     </row>
     <row r="196">
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.01687763713080169</v>
+        <v>0.01762114537444934</v>
       </c>
     </row>
     <row r="197">
@@ -2335,7 +2335,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.01687763713080169</v>
+        <v>0.01762114537444934</v>
       </c>
     </row>
     <row r="198">
@@ -2345,7 +2345,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.01687763713080169</v>
+        <v>0.01762114537444934</v>
       </c>
     </row>
     <row r="199">
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.01687763713080169</v>
+        <v>0.01762114537444934</v>
       </c>
     </row>
     <row r="200">
@@ -2365,7 +2365,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.01687763713080169</v>
+        <v>0.01762114537444934</v>
       </c>
     </row>
     <row r="201">
@@ -2375,7 +2375,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.01687763713080169</v>
+        <v>0.01762114537444934</v>
       </c>
     </row>
     <row r="202">
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.01687763713080169</v>
+        <v>0.01762114537444934</v>
       </c>
     </row>
     <row r="203">
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.01687763713080169</v>
+        <v>0.01762114537444934</v>
       </c>
     </row>
     <row r="204">
@@ -2405,7 +2405,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.01687763713080169</v>
+        <v>0.01762114537444934</v>
       </c>
     </row>
     <row r="205">
@@ -2415,7 +2415,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.01687763713080169</v>
+        <v>0.01762114537444934</v>
       </c>
     </row>
     <row r="206">
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.01687763713080169</v>
+        <v>0.01762114537444934</v>
       </c>
     </row>
     <row r="207">
@@ -2435,7 +2435,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.01687763713080169</v>
+        <v>0.01762114537444934</v>
       </c>
     </row>
     <row r="208">
@@ -2445,7 +2445,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.01265822784810126</v>
+        <v>0.01321585903083701</v>
       </c>
     </row>
     <row r="209">
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.01265822784810126</v>
+        <v>0.01321585903083701</v>
       </c>
     </row>
     <row r="210">
@@ -2465,7 +2465,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.01265822784810126</v>
+        <v>0.01321585903083701</v>
       </c>
     </row>
     <row r="211">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.01265822784810126</v>
+        <v>0.01321585903083701</v>
       </c>
     </row>
     <row r="212">
@@ -2485,7 +2485,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.01265822784810126</v>
+        <v>0.01321585903083701</v>
       </c>
     </row>
     <row r="213">
@@ -2495,7 +2495,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.01265822784810126</v>
+        <v>0.01321585903083701</v>
       </c>
     </row>
     <row r="214">
@@ -2505,7 +2505,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.01265822784810126</v>
+        <v>0.01321585903083701</v>
       </c>
     </row>
     <row r="215">
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.01265822784810126</v>
+        <v>0.01321585903083701</v>
       </c>
     </row>
     <row r="216">
@@ -2525,7 +2525,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.01265822784810126</v>
+        <v>0.01321585903083701</v>
       </c>
     </row>
     <row r="217">
@@ -2535,7 +2535,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.01265822784810126</v>
+        <v>0.01321585903083701</v>
       </c>
     </row>
     <row r="218">
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.01265822784810126</v>
+        <v>0.01321585903083701</v>
       </c>
     </row>
     <row r="219">
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.008438818565400843</v>
+        <v>0.00881057268722467</v>
       </c>
     </row>
     <row r="220">
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.008438818565400843</v>
+        <v>0.00881057268722467</v>
       </c>
     </row>
     <row r="221">
@@ -2575,7 +2575,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.008438818565400843</v>
+        <v>0.00881057268722467</v>
       </c>
     </row>
     <row r="222">
@@ -2585,7 +2585,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.008438818565400843</v>
+        <v>0.00881057268722467</v>
       </c>
     </row>
     <row r="223">
@@ -2595,7 +2595,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.008438818565400843</v>
+        <v>0.00881057268722467</v>
       </c>
     </row>
     <row r="224">
@@ -2605,7 +2605,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.008438818565400843</v>
+        <v>0.00881057268722467</v>
       </c>
     </row>
     <row r="225">
@@ -2615,7 +2615,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.008438818565400843</v>
+        <v>0.00881057268722467</v>
       </c>
     </row>
     <row r="226">
@@ -2625,7 +2625,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.008438818565400843</v>
+        <v>0.00881057268722467</v>
       </c>
     </row>
     <row r="227">
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.004219409282700422</v>
+        <v>0.004405286343612335</v>
       </c>
     </row>
     <row r="228">
@@ -2645,7 +2645,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.004219409282700422</v>
+        <v>0.004405286343612335</v>
       </c>
     </row>
     <row r="229">
@@ -2655,107 +2655,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0.004219409282700422</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>Teaching Mathematics and its Applications</t>
-        </is>
-      </c>
-      <c r="B230" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>FME Transactions</t>
-        </is>
-      </c>
-      <c r="B231" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>IEEE Transactions on Parallel and Distributed Systems</t>
-        </is>
-      </c>
-      <c r="B232" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>IEEE Parallel and Distributed Technology</t>
-        </is>
-      </c>
-      <c r="B233" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>Proceedings of the Euromicro Conference on Software Maintenance and Reengineering, CSMR</t>
-        </is>
-      </c>
-      <c r="B234" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>Journal of Advanced Transportation</t>
-        </is>
-      </c>
-      <c r="B235" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>Promet - Traffic - Traffico</t>
-        </is>
-      </c>
-      <c r="B236" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>Information Development</t>
-        </is>
-      </c>
-      <c r="B237" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>Safety Science</t>
-        </is>
-      </c>
-      <c r="B238" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>Actual Problems of Economics</t>
-        </is>
-      </c>
-      <c r="B239" t="n">
-        <v>0</v>
+        <v>0.004405286343612335</v>
       </c>
     </row>
   </sheetData>
